--- a/target/test-classes/DataDriven/TestData.xlsx
+++ b/target/test-classes/DataDriven/TestData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="3108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
     <sheet name="CardScheme" sheetId="2" r:id="rId2"/>
     <sheet name="CardProfile" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <oleSize ref="A1:P26"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Password</t>
   </si>
@@ -94,16 +94,12 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -456,12 +452,12 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -478,7 +474,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -513,13 +509,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/target/test-classes/DataDriven/TestData.xlsx
+++ b/target/test-classes/DataDriven/TestData.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="5196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="4536" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="CardScheme" sheetId="2" r:id="rId2"/>
-    <sheet name="CardProfile" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment" sheetId="2" r:id="rId2"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId3"/>
+    <sheet name="Users" sheetId="4" r:id="rId4"/>
+    <sheet name="TellerCredentials" sheetId="5" r:id="rId5"/>
+    <sheet name="IPConfiguration" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1:P26"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,85 +25,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Card Scheme Name</t>
-  </si>
-  <si>
-    <t>Master Card</t>
-  </si>
-  <si>
-    <t>Verve Card</t>
-  </si>
-  <si>
-    <t>Expiration Period</t>
-  </si>
-  <si>
-    <t>PAN Generation</t>
-  </si>
-  <si>
-    <t>PAN Length</t>
-  </si>
-  <si>
-    <t>PAN Prefix</t>
-  </si>
-  <si>
-    <t>Card Scheme</t>
-  </si>
-  <si>
-    <t>Pan Component Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Branch_Code</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>46666666</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
-    <t>ims.admin</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>admin@etranzact.com</t>
+  </si>
+  <si>
+    <t>Password12@</t>
+  </si>
+  <si>
+    <t>Search item</t>
+  </si>
+  <si>
+    <t>BINGHAM UNIVERSITY APPLICATION</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PaymentOption</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Delphine</t>
+  </si>
+  <si>
+    <t>Muoka</t>
+  </si>
+  <si>
+    <t>delphine.muoka@etranzactng.com</t>
+  </si>
+  <si>
+    <t>27 Fasheun street</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>08068267215</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Merchant Name</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Abia State University Test Merchant</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hostel Accomodation</t>
+  </si>
+  <si>
+    <t>15/04/2022</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>admin@etranzact.com1</t>
+  </si>
+  <si>
+    <t>Password12@1</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>LogonLimits</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>TransationLimit</t>
+  </si>
+  <si>
+    <t>Tellercredentials</t>
+  </si>
+  <si>
+    <t>TwoFactorSeed</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>dmuoka</t>
+  </si>
+  <si>
+    <t>QA Testing for firstbank</t>
+  </si>
+  <si>
+    <t>STandard Chartered Bank</t>
+  </si>
+  <si>
+    <t>Transaction Limit Test</t>
+  </si>
+  <si>
+    <t>Global Teller Credentials</t>
+  </si>
+  <si>
+    <t>Global Authorizer</t>
+  </si>
+  <si>
+    <t>12345623458</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Bank Code</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>000987654</t>
+  </si>
+  <si>
+    <t>FIRST BANK INVESTMENT HOUSE</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>etranzactng.com</t>
+  </si>
+  <si>
+    <t>172.17.10.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +226,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,15 +256,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,81 +559,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -504,13 +723,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -520,58 +740,248 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>